--- a/语料.xlsx
+++ b/语料.xlsx
@@ -171,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill/>
     </fill>
@@ -362,6 +362,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff441f"/>
       </patternFill>
     </fill>
   </fills>
@@ -621,11 +626,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1002,8 +1010,8 @@
           <t>今天天气怎么样</t>
         </is>
       </c>
-      <c r="B2" s="0" t="b">
-        <v>1</v>
+      <c r="B2" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
